--- a/biology/Zoologie/Fonds_d'intervention_pour_les_rapaces/Fonds_d'intervention_pour_les_rapaces.xlsx
+++ b/biology/Zoologie/Fonds_d'intervention_pour_les_rapaces/Fonds_d'intervention_pour_les_rapaces.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fonds_d%27intervention_pour_les_rapaces</t>
+          <t>Fonds_d'intervention_pour_les_rapaces</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Fonds d'intervention pour les rapaces (FIR) est une association française vouée à la protection des rapaces, créée en 1969 par Jean-François et Michel Terrasse, l'année où les rapaces ont obtenu une protection complète en France[1]. Le FIR  a rejoint la Ligue pour la protection des oiseaux (LPO) le 31 mai 1998, pour y constituer la « mission rapaces » de cette dernière[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Fonds d'intervention pour les rapaces (FIR) est une association française vouée à la protection des rapaces, créée en 1969 par Jean-François et Michel Terrasse, l'année où les rapaces ont obtenu une protection complète en France. Le FIR  a rejoint la Ligue pour la protection des oiseaux (LPO) le 31 mai 1998, pour y constituer la « mission rapaces » de cette dernière.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fonds_d%27intervention_pour_les_rapaces</t>
+          <t>Fonds_d'intervention_pour_les_rapaces</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le FIR puis la mission rapaces ont développé des actions de sensibilisation des populations et des pouvoirs publics, mais aussi de nombreuses actions de terrain. La mission rapaces « participe activement aux programmes de conservation sur la plupart des espèces de rapaces de notre pays. Par exemple, elle gère la réintroduction des vautours fauve et moine dans les Grands Causses, elle coordonne les plans de restauration du faucon crécerellette, du vautour percnoptère… La Mission Rapaces de la LPO a également développé depuis des années des activités de surveillance des aires de rapaces menacés. Cette action est plus que jamais une activité primordiale. Elle contribue à préserver des espèces en évitant les dérangements volontaires (vol d'œufs ou de poussins) et involontaires dus essentiellement à certains loisirs de plein air[2] ».
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le FIR puis la mission rapaces ont développé des actions de sensibilisation des populations et des pouvoirs publics, mais aussi de nombreuses actions de terrain. La mission rapaces « participe activement aux programmes de conservation sur la plupart des espèces de rapaces de notre pays. Par exemple, elle gère la réintroduction des vautours fauve et moine dans les Grands Causses, elle coordonne les plans de restauration du faucon crécerellette, du vautour percnoptère… La Mission Rapaces de la LPO a également développé depuis des années des activités de surveillance des aires de rapaces menacés. Cette action est plus que jamais une activité primordiale. Elle contribue à préserver des espèces en évitant les dérangements volontaires (vol d'œufs ou de poussins) et involontaires dus essentiellement à certains loisirs de plein air ».
 </t>
         </is>
       </c>
